--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,9 +99,6 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationLabResultCode_VS</t>
-  </si>
-  <si>
     <t>Hierarchy</t>
   </si>
   <si>
@@ -114,13 +111,16 @@
     <t>Content</t>
   </si>
   <si>
-    <t>fragment</t>
+    <t>complete</t>
   </si>
   <si>
     <t>Supplements</t>
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Level</t>
@@ -423,47 +423,47 @@
       <c r="A16" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-labresult-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
